--- a/tcsbt/Data/input/RESOURCE_TEAM_MAPPING.xlsx
+++ b/tcsbt/Data/input/RESOURCE_TEAM_MAPPING.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resource_Team!$A$1:$D$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resource_Team!$A$1:$D$115</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="141">
   <si>
     <t>Resource_Name</t>
   </si>
@@ -283,6 +283,165 @@
   </si>
   <si>
     <t>2727234</t>
+  </si>
+  <si>
+    <t>Onboarding</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Performance Improvement</t>
+  </si>
+  <si>
+    <t>Amit Yadav</t>
+  </si>
+  <si>
+    <t>Amit Mehta</t>
+  </si>
+  <si>
+    <t>Krishnababu  Jayabal</t>
+  </si>
+  <si>
+    <t>Rakesh Prajapati</t>
+  </si>
+  <si>
+    <t>Ranjith Kumar A.R.</t>
+  </si>
+  <si>
+    <t>Shrada Mudgal</t>
+  </si>
+  <si>
+    <t>Anand Balasubramanian</t>
+  </si>
+  <si>
+    <t>Pramod Sahoo</t>
+  </si>
+  <si>
+    <t>Rashmi Bhojwani</t>
+  </si>
+  <si>
+    <t>Pooja Koul</t>
+  </si>
+  <si>
+    <t>Shilpi  Agarwal</t>
+  </si>
+  <si>
+    <t>Sudhir Kumar Singh</t>
+  </si>
+  <si>
+    <t>Kiruthika Desai</t>
+  </si>
+  <si>
+    <t>Shivani Chauhan</t>
+  </si>
+  <si>
+    <t>Milind Singh</t>
+  </si>
+  <si>
+    <t>Rohini Somvanshi</t>
+  </si>
+  <si>
+    <t>Deepak Jagyasi</t>
+  </si>
+  <si>
+    <t>Manisha Makde</t>
+  </si>
+  <si>
+    <t>Peuly Maiti</t>
+  </si>
+  <si>
+    <t>Ajay Shinde</t>
+  </si>
+  <si>
+    <t>Priyanka Khandade</t>
+  </si>
+  <si>
+    <t>Rishi Gupta</t>
+  </si>
+  <si>
+    <t>Roshan Mhadgut</t>
+  </si>
+  <si>
+    <t>Wrushali Kolamkar</t>
+  </si>
+  <si>
+    <t>2727210</t>
+  </si>
+  <si>
+    <t>Dinesh Dhawade</t>
+  </si>
+  <si>
+    <t>Mamatha Devadiga</t>
+  </si>
+  <si>
+    <t>Pooja Hindelkar</t>
+  </si>
+  <si>
+    <t>Prasad Dalvi</t>
+  </si>
+  <si>
+    <t>Priti Yadav</t>
+  </si>
+  <si>
+    <t>Priyanka Bhatia</t>
+  </si>
+  <si>
+    <t>2727219</t>
+  </si>
+  <si>
+    <t>Abhishek Agarwal</t>
+  </si>
+  <si>
+    <t>Parvathy Remadevi</t>
+  </si>
+  <si>
+    <t>2727223</t>
+  </si>
+  <si>
+    <t>Abhinav Gupta</t>
+  </si>
+  <si>
+    <t>Grace Dmello</t>
+  </si>
+  <si>
+    <t>Hemakumar Aravind</t>
+  </si>
+  <si>
+    <t>Sameer Chauhan</t>
+  </si>
+  <si>
+    <t>2727226</t>
+  </si>
+  <si>
+    <t>Mohit Agarwal</t>
+  </si>
+  <si>
+    <t>Offshored</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>WON_Changed</t>
+  </si>
+  <si>
+    <t>Fixed Price - SMSF</t>
+  </si>
+  <si>
+    <t>Fixed Price - Metadata</t>
+  </si>
+  <si>
+    <t>2721529</t>
+  </si>
+  <si>
+    <t>2721051</t>
   </si>
 </sst>
 </file>
@@ -689,16 +848,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -724,21 +883,21 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -749,7 +908,7 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -763,10 +922,10 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -777,52 +936,52 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -833,7 +992,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -847,7 +1006,7 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -861,52 +1020,52 @@
         <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>76</v>
+      <c r="A15" t="s">
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -914,13 +1073,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -928,10 +1087,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -942,10 +1101,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
@@ -956,10 +1115,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -970,27 +1129,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -998,27 +1157,27 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
+      <c r="A23" t="s">
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1026,13 +1185,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1040,13 +1199,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1054,10 +1213,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>69</v>
@@ -1068,13 +1227,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1082,13 +1241,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1096,13 +1255,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1110,41 +1269,41 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>79</v>
+      <c r="A31" t="s">
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>79</v>
+      <c r="A32" t="s">
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1152,13 +1311,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1169,7 +1328,7 @@
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -1183,7 +1342,7 @@
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -1197,7 +1356,7 @@
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -1208,10 +1367,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>69</v>
@@ -1222,13 +1381,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1236,10 +1395,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -1250,10 +1409,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -1264,13 +1423,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1278,27 +1437,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>81</v>
+      <c r="A43" t="s">
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1306,10 +1465,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -1320,10 +1479,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -1333,42 +1492,42 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
-        <v>81</v>
+      <c r="A46" t="s">
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>82</v>
+      <c r="A47" t="s">
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
-        <v>82</v>
+      <c r="A48" t="s">
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1376,10 +1535,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
         <v>69</v>
@@ -1390,13 +1549,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1404,13 +1563,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1418,13 +1577,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1432,13 +1591,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1446,13 +1605,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1460,10 +1619,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -1474,13 +1633,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1488,10 +1647,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -1502,13 +1661,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1516,10 +1675,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>69</v>
@@ -1529,14 +1688,14 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
-        <v>85</v>
+      <c r="A60" t="s">
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1544,27 +1703,27 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="3" t="s">
-        <v>86</v>
+      <c r="A62" t="s">
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1572,27 +1731,27 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
-        <v>86</v>
+      <c r="A64" t="s">
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1600,13 +1759,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1614,64 +1773,709 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
         <v>58</v>
       </c>
-      <c r="C66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="3" t="s">
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
         <v>59</v>
       </c>
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3" t="s">
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B97" t="s">
         <v>63</v>
       </c>
-      <c r="C68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="3" t="s">
+      <c r="C97" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B112" t="s">
         <v>65</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C112" t="s">
         <v>73</v>
       </c>
-      <c r="D69">
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D69">
-    <sortCondition ref="A2:A69"/>
-    <sortCondition ref="B2:B69"/>
+  <autoFilter ref="A1:D115"/>
+  <sortState ref="A2:D112">
+    <sortCondition ref="A2:A112"/>
+    <sortCondition ref="B2:B112"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
